--- a/PCB/BOM.xlsx
+++ b/PCB/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dev\Github\Battery\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dev\Github\BatteryTester\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF3F5A9-080C-475E-9B8B-33840244FD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A3A50-9BEF-4911-99B3-3FA09CAF64C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="2715" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>RefDes</t>
   </si>
@@ -278,12 +278,15 @@
   </si>
   <si>
     <t>TP4056</t>
+  </si>
+  <si>
+    <t>Received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1118,21 +1121,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1148,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1770,6 +1776,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>